--- a/Hoja-de-Desempeño-Administración.xlsx
+++ b/Hoja-de-Desempeño-Administración.xlsx
@@ -5,7 +5,7 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Julio\Downloads\Administracion\Calificar hoy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Julio\Downloads\Administracion\GitHub\Admon\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="24">
   <si>
     <t>EFICIENCIA</t>
   </si>
@@ -5726,9 +5726,7 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000005-678B-4E39-8D00-631C76F2603C}"/>
                 </c:ext>
@@ -5750,9 +5748,7 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000007-678B-4E39-8D00-631C76F2603C}"/>
                 </c:ext>
@@ -5835,7 +5831,6 @@
                     <a:noFill/>
                   </a:ln>
                 </c15:spPr>
-                <c15:layout/>
               </c:ext>
             </c:extLst>
           </c:dLbls>
@@ -6422,9 +6417,7 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000001-98BE-4A26-8182-45F1C3E1A694}"/>
                 </c:ext>
@@ -6446,9 +6439,7 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000003-98BE-4A26-8182-45F1C3E1A694}"/>
                 </c:ext>
@@ -6470,9 +6461,7 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000005-98BE-4A26-8182-45F1C3E1A694}"/>
                 </c:ext>
@@ -6494,9 +6483,7 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000007-98BE-4A26-8182-45F1C3E1A694}"/>
                 </c:ext>
@@ -6518,9 +6505,7 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000B-98BE-4A26-8182-45F1C3E1A694}"/>
                 </c:ext>
@@ -6603,7 +6588,6 @@
                     <a:noFill/>
                   </a:ln>
                 </c15:spPr>
-                <c15:layout/>
               </c:ext>
             </c:extLst>
           </c:dLbls>
@@ -7200,9 +7184,7 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000001-EC94-41CD-B0C5-D46229CB8310}"/>
                 </c:ext>
@@ -7224,9 +7206,7 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000003-EC94-41CD-B0C5-D46229CB8310}"/>
                 </c:ext>
@@ -7248,9 +7228,7 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000005-EC94-41CD-B0C5-D46229CB8310}"/>
                 </c:ext>
@@ -7272,9 +7250,7 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000007-EC94-41CD-B0C5-D46229CB8310}"/>
                 </c:ext>
@@ -7357,7 +7333,6 @@
                     <a:noFill/>
                   </a:ln>
                 </c15:spPr>
-                <c15:layout/>
               </c:ext>
             </c:extLst>
           </c:dLbls>
@@ -7944,9 +7919,7 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000001-66E8-493A-B2C2-9142D5931146}"/>
                 </c:ext>
@@ -7968,9 +7941,7 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000003-66E8-493A-B2C2-9142D5931146}"/>
                 </c:ext>
@@ -7992,9 +7963,7 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000005-66E8-493A-B2C2-9142D5931146}"/>
                 </c:ext>
@@ -8016,9 +7985,7 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000007-66E8-493A-B2C2-9142D5931146}"/>
                 </c:ext>
@@ -8040,9 +8007,7 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000B-66E8-493A-B2C2-9142D5931146}"/>
                 </c:ext>
@@ -8125,7 +8090,6 @@
                     <a:noFill/>
                   </a:ln>
                 </c15:spPr>
-                <c15:layout/>
               </c:ext>
             </c:extLst>
           </c:dLbls>
@@ -10251,9 +10215,7 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000001-82E0-4EE3-846F-81EE5812B53D}"/>
                 </c:ext>
@@ -10275,9 +10237,7 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000003-82E0-4EE3-846F-81EE5812B53D}"/>
                 </c:ext>
@@ -10299,9 +10259,7 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000005-82E0-4EE3-846F-81EE5812B53D}"/>
                 </c:ext>
@@ -10323,9 +10281,7 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000007-82E0-4EE3-846F-81EE5812B53D}"/>
                 </c:ext>
@@ -10347,9 +10303,7 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000009-82E0-4EE3-846F-81EE5812B53D}"/>
                 </c:ext>
@@ -10454,7 +10408,6 @@
                     <a:noFill/>
                   </a:ln>
                 </c15:spPr>
-                <c15:layout/>
               </c:ext>
             </c:extLst>
           </c:dLbls>
@@ -10604,7 +10557,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10765,7 +10717,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -10881,7 +10832,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -10997,7 +10947,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -11113,7 +11062,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -11229,7 +11177,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -11345,7 +11292,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -11452,7 +11398,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
@@ -12143,7 +12088,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Noviembre!$D$4:$D$9</c:f>
+              <c:f>Noviembre!$E$4:$E$9</c:f>
               <c:numCache>
                 <c:formatCode>0_);[Red]\(0\)</c:formatCode>
                 <c:ptCount val="6"/>
@@ -12163,7 +12108,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>40</c:v>
+                  <c:v>26.666666666666668</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12911,7 +12856,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Noviembre!$G$4:$G$9</c:f>
+              <c:f>Noviembre!$I$4:$I$9</c:f>
               <c:numCache>
                 <c:formatCode>0_);[Red]\(0\)</c:formatCode>
                 <c:ptCount val="6"/>
@@ -12931,7 +12876,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>40</c:v>
+                  <c:v>26.666666666666668</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13665,7 +13610,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Noviembre!$J$4:$J$9</c:f>
+              <c:f>Noviembre!$M$4:$M$9</c:f>
               <c:numCache>
                 <c:formatCode>0_);[Red]\(0\)</c:formatCode>
                 <c:ptCount val="6"/>
@@ -13676,7 +13621,7 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>80</c:v>
+                  <c:v>83.333333333333329</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>90</c:v>
@@ -13685,7 +13630,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>40</c:v>
+                  <c:v>26.666666666666668</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14433,7 +14378,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Noviembre!$M$4:$M$9</c:f>
+              <c:f>Noviembre!$Q$4:$Q$9</c:f>
               <c:numCache>
                 <c:formatCode>0_);[Red]\(0\)</c:formatCode>
                 <c:ptCount val="6"/>
@@ -14453,7 +14398,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>40</c:v>
+                  <c:v>26.666666666666668</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15202,7 +15147,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Noviembre!$P$4:$P$9</c:f>
+              <c:f>Noviembre!$U$4:$U$9</c:f>
               <c:numCache>
                 <c:formatCode>0_);[Red]\(0\)</c:formatCode>
                 <c:ptCount val="6"/>
@@ -15222,7 +15167,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>40</c:v>
+                  <c:v>26.666666666666668</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16003,7 +15948,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Noviembre!$V$4:$V$9</c:f>
+              <c:f>Noviembre!$AA$4:$AA$9</c:f>
               <c:numCache>
                 <c:formatCode>0_);[Red]\(0\)</c:formatCode>
                 <c:ptCount val="6"/>
@@ -16014,7 +15959,7 @@
                   <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>94</c:v>
+                  <c:v>94.666666666666657</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>96</c:v>
@@ -16023,7 +15968,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>40</c:v>
+                  <c:v>26.666666666666668</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16302,7 +16247,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Noviembre!$V$4</c:f>
+              <c:f>Noviembre!$AA$4</c:f>
               <c:numCache>
                 <c:formatCode>0_);[Red]\(0\)</c:formatCode>
                 <c:ptCount val="1"/>
@@ -16418,7 +16363,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Noviembre!$V$5</c:f>
+              <c:f>Noviembre!$AA$5</c:f>
               <c:numCache>
                 <c:formatCode>0_);[Red]\(0\)</c:formatCode>
                 <c:ptCount val="1"/>
@@ -16534,12 +16479,12 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Noviembre!$V$6</c:f>
+              <c:f>Noviembre!$AA$6</c:f>
               <c:numCache>
                 <c:formatCode>0_);[Red]\(0\)</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>94</c:v>
+                  <c:v>94.666666666666657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16650,7 +16595,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Noviembre!$V$7</c:f>
+              <c:f>Noviembre!$AA$7</c:f>
               <c:numCache>
                 <c:formatCode>0_);[Red]\(0\)</c:formatCode>
                 <c:ptCount val="1"/>
@@ -16766,7 +16711,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Noviembre!$V$8</c:f>
+              <c:f>Noviembre!$AA$8</c:f>
               <c:numCache>
                 <c:formatCode>0_);[Red]\(0\)</c:formatCode>
                 <c:ptCount val="1"/>
@@ -16882,12 +16827,12 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Noviembre!$V$9</c:f>
+              <c:f>Noviembre!$AA$9</c:f>
               <c:numCache>
                 <c:formatCode>0_);[Red]\(0\)</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>40</c:v>
+                  <c:v>26.666666666666668</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -41078,13 +41023,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>243567</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
+      <xdr:col>28</xdr:col>
       <xdr:colOff>201751</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>160200</xdr:rowOff>
@@ -41122,7 +41067,7 @@
       <xdr:rowOff>11945</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>49</xdr:row>
       <xdr:rowOff>172145</xdr:rowOff>
@@ -41154,13 +41099,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>42334</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>10584</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>517</xdr:colOff>
       <xdr:row>49</xdr:row>
       <xdr:rowOff>170784</xdr:rowOff>
@@ -41192,13 +41137,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>238580</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>8768</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
+      <xdr:col>28</xdr:col>
       <xdr:colOff>196764</xdr:colOff>
       <xdr:row>49</xdr:row>
       <xdr:rowOff>168968</xdr:rowOff>
@@ -41230,13 +41175,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>29691</xdr:colOff>
       <xdr:row>51</xdr:row>
       <xdr:rowOff>3024</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>494035</xdr:colOff>
       <xdr:row>69</xdr:row>
       <xdr:rowOff>163224</xdr:rowOff>
@@ -41268,13 +41213,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>21166</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>10584</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>486832</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>169334</xdr:rowOff>
@@ -41312,7 +41257,7 @@
       <xdr:rowOff>12397</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>172597</xdr:rowOff>
@@ -44087,79 +44032,84 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB10"/>
+  <dimension ref="A1:AG10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+      <selection activeCell="T4" sqref="T4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.140625" customWidth="1"/>
     <col min="2" max="2" width="6.42578125" customWidth="1"/>
-    <col min="3" max="3" width="6" customWidth="1"/>
-    <col min="4" max="4" width="5.85546875" customWidth="1"/>
-    <col min="5" max="5" width="5.5703125" customWidth="1"/>
-    <col min="6" max="6" width="5.42578125" customWidth="1"/>
-    <col min="7" max="7" width="6" customWidth="1"/>
-    <col min="8" max="8" width="7" customWidth="1"/>
-    <col min="9" max="9" width="8.140625" customWidth="1"/>
-    <col min="10" max="10" width="7.7109375" customWidth="1"/>
-    <col min="11" max="11" width="7.28515625" customWidth="1"/>
-    <col min="12" max="12" width="7.7109375" customWidth="1"/>
-    <col min="13" max="13" width="7" customWidth="1"/>
-    <col min="14" max="14" width="7.5703125" customWidth="1"/>
-    <col min="15" max="15" width="6.140625" customWidth="1"/>
-    <col min="16" max="16" width="7.140625" customWidth="1"/>
-    <col min="17" max="17" width="7.28515625" customWidth="1"/>
-    <col min="18" max="18" width="6.28515625" customWidth="1"/>
-    <col min="19" max="19" width="7.140625" customWidth="1"/>
-    <col min="20" max="20" width="7.5703125" customWidth="1"/>
-    <col min="21" max="21" width="7.7109375" customWidth="1"/>
-    <col min="22" max="22" width="7.42578125" customWidth="1"/>
-    <col min="23" max="23" width="8.140625" customWidth="1"/>
-    <col min="24" max="24" width="7.7109375" customWidth="1"/>
-    <col min="25" max="25" width="8.5703125" customWidth="1"/>
-    <col min="26" max="26" width="7.42578125" customWidth="1"/>
-    <col min="27" max="27" width="8.28515625" customWidth="1"/>
+    <col min="3" max="4" width="6" customWidth="1"/>
+    <col min="5" max="5" width="5.85546875" customWidth="1"/>
+    <col min="6" max="6" width="5.5703125" customWidth="1"/>
+    <col min="7" max="8" width="5.42578125" customWidth="1"/>
+    <col min="9" max="9" width="6" customWidth="1"/>
+    <col min="10" max="10" width="7" customWidth="1"/>
+    <col min="11" max="12" width="8.140625" customWidth="1"/>
+    <col min="13" max="13" width="7.7109375" customWidth="1"/>
+    <col min="14" max="14" width="7.28515625" customWidth="1"/>
+    <col min="15" max="16" width="7.7109375" customWidth="1"/>
+    <col min="17" max="17" width="7" customWidth="1"/>
+    <col min="18" max="18" width="7.5703125" customWidth="1"/>
+    <col min="19" max="20" width="6.140625" customWidth="1"/>
+    <col min="21" max="21" width="7.140625" customWidth="1"/>
+    <col min="22" max="22" width="7.28515625" customWidth="1"/>
+    <col min="23" max="23" width="6.28515625" customWidth="1"/>
+    <col min="24" max="24" width="7.140625" customWidth="1"/>
+    <col min="25" max="25" width="7.5703125" customWidth="1"/>
+    <col min="26" max="26" width="7.7109375" customWidth="1"/>
+    <col min="27" max="27" width="7.42578125" customWidth="1"/>
+    <col min="28" max="28" width="8.140625" customWidth="1"/>
+    <col min="29" max="29" width="7.7109375" customWidth="1"/>
+    <col min="30" max="30" width="8.5703125" customWidth="1"/>
+    <col min="31" max="31" width="7.42578125" customWidth="1"/>
+    <col min="32" max="32" width="8.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="36" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="36"/>
       <c r="D1" s="36"/>
-      <c r="E1" s="36" t="s">
+      <c r="E1" s="36"/>
+      <c r="F1" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="36"/>
       <c r="G1" s="36"/>
-      <c r="H1" s="36" t="s">
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36" t="s">
-        <v>3</v>
-      </c>
+      <c r="K1" s="36"/>
       <c r="L1" s="36"/>
       <c r="M1" s="36"/>
       <c r="N1" s="36" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O1" s="36"/>
       <c r="P1" s="36"/>
-      <c r="Q1" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="R1" s="36"/>
+      <c r="Q1" s="36"/>
+      <c r="R1" s="36" t="s">
+        <v>4</v>
+      </c>
       <c r="S1" s="36"/>
       <c r="T1" s="36"/>
       <c r="U1" s="36"/>
-      <c r="V1" s="36"/>
+      <c r="V1" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="W1" s="36"/>
+      <c r="X1" s="36"/>
+      <c r="Y1" s="36"/>
+      <c r="Z1" s="36"/>
+      <c r="AA1" s="36"/>
     </row>
-    <row r="2" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="36"/>
       <c r="C2" s="36"/>
       <c r="D2" s="36"/>
@@ -44181,40 +44131,45 @@
       <c r="T2" s="36"/>
       <c r="U2" s="36"/>
       <c r="V2" s="36"/>
+      <c r="W2" s="36"/>
+      <c r="X2" s="36"/>
+      <c r="Y2" s="36"/>
+      <c r="Z2" s="36"/>
+      <c r="AA2" s="36"/>
     </row>
-    <row r="3" spans="1:28" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="23" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="23" t="s">
+      <c r="F3" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="23" t="s">
+      <c r="G3" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="H3" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="23" t="s">
+      <c r="J3" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="23" t="s">
+      <c r="K3" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="K3" s="23" t="s">
-        <v>10</v>
-      </c>
       <c r="L3" s="23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M3" s="10" t="s">
         <v>14</v>
@@ -44225,29 +44180,44 @@
       <c r="O3" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="P3" s="10" t="s">
+      <c r="P3" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q3" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="Q3" s="24" t="s">
+      <c r="R3" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="S3" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="T3" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="U3" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="V3" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="R3" s="24" t="s">
+      <c r="W3" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="S3" s="24" t="s">
+      <c r="X3" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="T3" s="24" t="s">
+      <c r="Y3" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="U3" s="24" t="s">
+      <c r="Z3" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="V3" s="25" t="s">
+      <c r="AA3" s="25" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="27" t="s">
         <v>18</v>
       </c>
@@ -44257,76 +44227,91 @@
       <c r="C4" s="1">
         <v>100</v>
       </c>
-      <c r="D4" s="7">
-        <f>AVERAGE(B4:C4)</f>
+      <c r="D4" s="1">
         <v>100</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="7">
+        <f>AVERAGE(B4:D4)</f>
         <v>100</v>
       </c>
       <c r="F4" s="2">
         <v>100</v>
       </c>
-      <c r="G4" s="8">
-        <f>AVERAGE(E4:F4)</f>
+      <c r="G4" s="2">
         <v>100</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="2">
         <v>100</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I4" s="8">
+        <f>AVERAGE(F4:H4)</f>
         <v>100</v>
       </c>
-      <c r="J4" s="6">
-        <f>AVERAGE(H4:I4)</f>
+      <c r="J4" s="3">
         <v>100</v>
       </c>
-      <c r="K4" s="15">
+      <c r="K4" s="3">
         <v>100</v>
       </c>
-      <c r="L4" s="15">
+      <c r="L4" s="3">
         <v>100</v>
       </c>
-      <c r="M4" s="16">
-        <f>AVERAGE(K4:L4)</f>
+      <c r="M4" s="6">
+        <f>AVERAGE(J4:L4)</f>
         <v>100</v>
       </c>
-      <c r="N4" s="4">
+      <c r="N4" s="15">
+        <v>100</v>
+      </c>
+      <c r="O4" s="15">
+        <v>100</v>
+      </c>
+      <c r="P4" s="15">
+        <v>100</v>
+      </c>
+      <c r="Q4" s="16">
+        <f>AVERAGE(N4:P4)</f>
+        <v>100</v>
+      </c>
+      <c r="R4" s="4">
         <v>90</v>
       </c>
-      <c r="O4" s="4">
+      <c r="S4" s="4">
         <v>90</v>
       </c>
-      <c r="P4" s="9">
-        <f>AVERAGE(N4:O4)</f>
+      <c r="T4" s="4">
         <v>90</v>
       </c>
-      <c r="Q4" s="5">
-        <f>+D4</f>
+      <c r="U4" s="9">
+        <f>AVERAGE(R4:T4)</f>
+        <v>90</v>
+      </c>
+      <c r="V4" s="5">
+        <f t="shared" ref="V4:V9" si="0">+E4</f>
         <v>100</v>
       </c>
-      <c r="R4" s="5">
-        <f>+G4</f>
+      <c r="W4" s="5">
+        <f t="shared" ref="W4:W9" si="1">+I4</f>
         <v>100</v>
       </c>
-      <c r="S4" s="5">
-        <f>+J4</f>
+      <c r="X4" s="5">
+        <f t="shared" ref="X4:X9" si="2">+M4</f>
         <v>100</v>
       </c>
-      <c r="T4" s="5">
-        <f>+M4</f>
+      <c r="Y4" s="5">
+        <f t="shared" ref="Y4:Y9" si="3">+Q4</f>
         <v>100</v>
       </c>
-      <c r="U4" s="5">
-        <f t="shared" ref="U4:U9" si="0">+P4</f>
+      <c r="Z4" s="5">
+        <f t="shared" ref="Z4:Z9" si="4">+U4</f>
         <v>90</v>
       </c>
-      <c r="V4" s="21">
-        <f t="shared" ref="V4:V9" si="1">AVERAGE(Q4:U4)</f>
+      <c r="AA4" s="21">
+        <f t="shared" ref="AA4:AA9" si="5">AVERAGE(V4:Z4)</f>
         <v>98</v>
       </c>
     </row>
-    <row r="5" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="27" t="s">
         <v>19</v>
       </c>
@@ -44336,76 +44321,91 @@
       <c r="C5" s="1">
         <v>100</v>
       </c>
-      <c r="D5" s="7">
-        <f>AVERAGE(B5:C5)</f>
+      <c r="D5" s="1">
         <v>100</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="7">
+        <f t="shared" ref="E5:E9" si="6">AVERAGE(B5:D5)</f>
         <v>100</v>
       </c>
       <c r="F5" s="2">
         <v>100</v>
       </c>
-      <c r="G5" s="8">
-        <f>AVERAGE(E5:F5)</f>
+      <c r="G5" s="2">
         <v>100</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="2">
         <v>100</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I5" s="8">
+        <f t="shared" ref="I5:I9" si="7">AVERAGE(F5:H5)</f>
         <v>100</v>
       </c>
-      <c r="J5" s="6">
-        <f>AVERAGE(H5:I5)</f>
+      <c r="J5" s="3">
         <v>100</v>
       </c>
-      <c r="K5" s="15">
+      <c r="K5" s="3">
         <v>100</v>
       </c>
-      <c r="L5" s="15">
+      <c r="L5" s="3">
         <v>100</v>
       </c>
-      <c r="M5" s="16">
-        <f>AVERAGE(K5:L5)</f>
+      <c r="M5" s="6">
+        <f t="shared" ref="M5:M9" si="8">AVERAGE(J5:L5)</f>
         <v>100</v>
       </c>
-      <c r="N5" s="4">
+      <c r="N5" s="15">
+        <v>100</v>
+      </c>
+      <c r="O5" s="15">
+        <v>100</v>
+      </c>
+      <c r="P5" s="15">
+        <v>100</v>
+      </c>
+      <c r="Q5" s="16">
+        <f t="shared" ref="Q5:Q9" si="9">AVERAGE(N5:P5)</f>
+        <v>100</v>
+      </c>
+      <c r="R5" s="4">
         <v>90</v>
       </c>
-      <c r="O5" s="4">
+      <c r="S5" s="4">
         <v>90</v>
       </c>
-      <c r="P5" s="9">
-        <f>AVERAGE(N5:O5)</f>
+      <c r="T5" s="4">
         <v>90</v>
       </c>
-      <c r="Q5" s="5">
-        <f>+D5</f>
+      <c r="U5" s="9">
+        <f t="shared" ref="U5:U9" si="10">AVERAGE(R5:T5)</f>
+        <v>90</v>
+      </c>
+      <c r="V5" s="5">
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="R5" s="5">
-        <f>+G5</f>
+      <c r="W5" s="5">
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="S5" s="5">
-        <f>+J5</f>
+      <c r="X5" s="5">
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="T5" s="5">
-        <f>+M5</f>
+      <c r="Y5" s="5">
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="U5" s="5">
-        <f t="shared" si="0"/>
+      <c r="Z5" s="5">
+        <f t="shared" si="4"/>
         <v>90</v>
       </c>
-      <c r="V5" s="21">
-        <f t="shared" si="1"/>
+      <c r="AA5" s="21">
+        <f t="shared" si="5"/>
         <v>98</v>
       </c>
     </row>
-    <row r="6" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="27" t="s">
         <v>20</v>
       </c>
@@ -44415,77 +44415,92 @@
       <c r="C6" s="1">
         <v>100</v>
       </c>
-      <c r="D6" s="7">
-        <f>AVERAGE(B6:C6)</f>
+      <c r="D6" s="1">
         <v>100</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="7">
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="F6" s="2">
         <v>100</v>
       </c>
-      <c r="G6" s="8">
-        <f>AVERAGE(E6:F6)</f>
+      <c r="G6" s="2">
         <v>100</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="2">
+        <v>100</v>
+      </c>
+      <c r="I6" s="8">
+        <f t="shared" si="7"/>
+        <v>100</v>
+      </c>
+      <c r="J6" s="3">
         <v>80</v>
       </c>
-      <c r="I6" s="3">
+      <c r="K6" s="3">
         <v>80</v>
       </c>
-      <c r="J6" s="6">
-        <f>AVERAGE(H6:I6)</f>
-        <v>80</v>
-      </c>
-      <c r="K6" s="15">
+      <c r="L6" s="3">
+        <v>90</v>
+      </c>
+      <c r="M6" s="6">
+        <f t="shared" si="8"/>
+        <v>83.333333333333329</v>
+      </c>
+      <c r="N6" s="15">
         <v>100</v>
       </c>
-      <c r="L6" s="15">
+      <c r="O6" s="15">
         <v>100</v>
       </c>
-      <c r="M6" s="16">
-        <f>AVERAGE(K6:L6)</f>
+      <c r="P6" s="15">
         <v>100</v>
       </c>
-      <c r="N6" s="4">
+      <c r="Q6" s="16">
+        <f t="shared" si="9"/>
+        <v>100</v>
+      </c>
+      <c r="R6" s="4">
         <v>90</v>
       </c>
-      <c r="O6" s="4">
+      <c r="S6" s="4">
         <v>90</v>
       </c>
-      <c r="P6" s="9">
-        <f>AVERAGE(N6:O6)</f>
+      <c r="T6" s="4">
         <v>90</v>
       </c>
-      <c r="Q6" s="5">
-        <f>+D6</f>
+      <c r="U6" s="9">
+        <f t="shared" si="10"/>
+        <v>90</v>
+      </c>
+      <c r="V6" s="5">
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="R6" s="5">
-        <f>+G6</f>
+      <c r="W6" s="5">
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="S6" s="5">
-        <f>+J6</f>
-        <v>80</v>
-      </c>
-      <c r="T6" s="5">
-        <f>+M6</f>
+      <c r="X6" s="5">
+        <f t="shared" si="2"/>
+        <v>83.333333333333329</v>
+      </c>
+      <c r="Y6" s="5">
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="U6" s="5">
-        <f t="shared" si="0"/>
+      <c r="Z6" s="5">
+        <f t="shared" si="4"/>
         <v>90</v>
       </c>
-      <c r="V6" s="21">
-        <f t="shared" si="1"/>
-        <v>94</v>
-      </c>
-      <c r="AB6" s="17"/>
+      <c r="AA6" s="21">
+        <f t="shared" si="5"/>
+        <v>94.666666666666657</v>
+      </c>
+      <c r="AG6" s="17"/>
     </row>
-    <row r="7" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="27" t="s">
         <v>21</v>
       </c>
@@ -44495,79 +44510,94 @@
       <c r="C7" s="1">
         <v>100</v>
       </c>
-      <c r="D7" s="7">
-        <f>AVERAGE(B7:C7)</f>
+      <c r="D7" s="1">
         <v>100</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="7">
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="F7" s="2">
         <v>100</v>
       </c>
-      <c r="G7" s="8">
-        <f>AVERAGE(E7:F7)</f>
+      <c r="G7" s="2">
         <v>100</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="2">
+        <v>100</v>
+      </c>
+      <c r="I7" s="8">
+        <f t="shared" si="7"/>
+        <v>100</v>
+      </c>
+      <c r="J7" s="3">
         <v>90</v>
       </c>
-      <c r="I7" s="3">
+      <c r="K7" s="3">
         <v>90</v>
       </c>
-      <c r="J7" s="6">
-        <f>AVERAGE(H7:I7)</f>
+      <c r="L7" s="3">
         <v>90</v>
       </c>
-      <c r="K7" s="15">
+      <c r="M7" s="6">
+        <f t="shared" si="8"/>
+        <v>90</v>
+      </c>
+      <c r="N7" s="15">
         <v>100</v>
       </c>
-      <c r="L7" s="15">
+      <c r="O7" s="15">
         <v>100</v>
       </c>
-      <c r="M7" s="16">
-        <f>AVERAGE(K7:L7)</f>
+      <c r="P7" s="15">
         <v>100</v>
       </c>
-      <c r="N7" s="4">
+      <c r="Q7" s="16">
+        <f t="shared" si="9"/>
+        <v>100</v>
+      </c>
+      <c r="R7" s="4">
         <v>90</v>
       </c>
-      <c r="O7" s="4">
+      <c r="S7" s="4">
         <v>90</v>
       </c>
-      <c r="P7" s="9">
-        <f>AVERAGE(N7:O7)</f>
+      <c r="T7" s="4">
         <v>90</v>
       </c>
-      <c r="Q7" s="5">
-        <f>+D7</f>
+      <c r="U7" s="9">
+        <f t="shared" si="10"/>
+        <v>90</v>
+      </c>
+      <c r="V7" s="5">
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="R7" s="5">
-        <f>+G7</f>
+      <c r="W7" s="5">
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="S7" s="5">
-        <f>+J7</f>
+      <c r="X7" s="5">
+        <f>+M7</f>
         <v>90</v>
       </c>
-      <c r="T7" s="5">
-        <f>+M7</f>
+      <c r="Y7" s="5">
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="U7" s="5">
-        <f t="shared" si="0"/>
+      <c r="Z7" s="5">
+        <f t="shared" si="4"/>
         <v>90</v>
       </c>
-      <c r="V7" s="21">
-        <f t="shared" si="1"/>
+      <c r="AA7" s="21">
+        <f t="shared" si="5"/>
         <v>96</v>
       </c>
-      <c r="AA7" s="14" t="s">
+      <c r="AF7" s="14" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="27" t="s">
         <v>22</v>
       </c>
@@ -44577,76 +44607,91 @@
       <c r="C8" s="1">
         <v>0</v>
       </c>
-      <c r="D8" s="7">
-        <f>AVERAGE(B8:C8)</f>
+      <c r="D8" s="1">
         <v>0</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="7">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F8" s="2">
         <v>0</v>
       </c>
-      <c r="G8" s="8">
-        <f>AVERAGE(E8:F8)</f>
+      <c r="G8" s="2">
         <v>0</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="2">
         <v>0</v>
       </c>
-      <c r="I8" s="3">
+      <c r="I8" s="8">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J8" s="6">
-        <f>AVERAGE(H8:I8)</f>
+      <c r="J8" s="3">
         <v>0</v>
       </c>
-      <c r="K8" s="15">
+      <c r="K8" s="3">
         <v>0</v>
       </c>
-      <c r="L8" s="15">
+      <c r="L8" s="3">
         <v>0</v>
       </c>
-      <c r="M8" s="16">
-        <f>AVERAGE(K8:L8)</f>
+      <c r="M8" s="6">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="N8" s="4">
+      <c r="N8" s="15">
         <v>0</v>
       </c>
-      <c r="O8" s="4">
+      <c r="O8" s="15">
         <v>0</v>
       </c>
-      <c r="P8" s="9">
-        <f>AVERAGE(N8:O8)</f>
+      <c r="P8" s="15">
         <v>0</v>
       </c>
-      <c r="Q8" s="5">
-        <f>+D8</f>
+      <c r="Q8" s="16">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="R8" s="5">
-        <f>+G8</f>
+      <c r="R8" s="4">
         <v>0</v>
       </c>
-      <c r="S8" s="5">
-        <f>+J8</f>
+      <c r="S8" s="4">
         <v>0</v>
       </c>
-      <c r="T8" s="5">
-        <f>+M8</f>
+      <c r="T8" s="4">
         <v>0</v>
       </c>
-      <c r="U8" s="5">
+      <c r="U8" s="9">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="V8" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V8" s="21">
+      <c r="W8" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="X8" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y8" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Z8" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AA8" s="21">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="27" t="s">
         <v>23</v>
       </c>
@@ -44656,126 +44701,148 @@
       <c r="C9" s="1">
         <v>40</v>
       </c>
-      <c r="D9" s="7">
-        <f>AVERAGE(B9:C9)</f>
-        <v>40</v>
-      </c>
-      <c r="E9" s="2">
-        <v>40</v>
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="E9" s="7">
+        <f t="shared" si="6"/>
+        <v>26.666666666666668</v>
       </c>
       <c r="F9" s="2">
         <v>40</v>
       </c>
-      <c r="G9" s="8">
-        <f>AVERAGE(E9:F9)</f>
+      <c r="G9" s="2">
         <v>40</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="2">
+        <v>0</v>
+      </c>
+      <c r="I9" s="8">
+        <f t="shared" si="7"/>
+        <v>26.666666666666668</v>
+      </c>
+      <c r="J9" s="3">
         <v>40</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>40</v>
       </c>
-      <c r="J9" s="6">
-        <f>AVERAGE(H9:I9)</f>
+      <c r="L9" s="3">
+        <v>0</v>
+      </c>
+      <c r="M9" s="6">
+        <f t="shared" si="8"/>
+        <v>26.666666666666668</v>
+      </c>
+      <c r="N9" s="15">
         <v>40</v>
       </c>
-      <c r="K9" s="15">
+      <c r="O9" s="15">
         <v>40</v>
       </c>
-      <c r="L9" s="15">
+      <c r="P9" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="16">
+        <f t="shared" si="9"/>
+        <v>26.666666666666668</v>
+      </c>
+      <c r="R9" s="4">
         <v>40</v>
       </c>
-      <c r="M9" s="16">
-        <f>AVERAGE(K9:L9)</f>
+      <c r="S9" s="4">
         <v>40</v>
       </c>
-      <c r="N9" s="4">
-        <v>40</v>
-      </c>
-      <c r="O9" s="4">
-        <v>40</v>
-      </c>
-      <c r="P9" s="9">
-        <f>AVERAGE(N9:O9)</f>
-        <v>40</v>
-      </c>
-      <c r="Q9" s="5">
-        <f>+D9</f>
-        <v>40</v>
-      </c>
-      <c r="R9" s="5">
-        <f>+G9</f>
-        <v>40</v>
-      </c>
-      <c r="S9" s="5">
-        <f>+J9</f>
-        <v>40</v>
-      </c>
-      <c r="T9" s="5">
-        <f>+M9</f>
-        <v>40</v>
-      </c>
-      <c r="U9" s="5">
+      <c r="T9" s="4">
+        <v>0</v>
+      </c>
+      <c r="U9" s="9">
+        <f t="shared" si="10"/>
+        <v>26.666666666666668</v>
+      </c>
+      <c r="V9" s="5">
         <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="V9" s="21">
+        <v>26.666666666666668</v>
+      </c>
+      <c r="W9" s="5">
         <f t="shared" si="1"/>
-        <v>40</v>
+        <v>26.666666666666668</v>
+      </c>
+      <c r="X9" s="5">
+        <f t="shared" si="2"/>
+        <v>26.666666666666668</v>
+      </c>
+      <c r="Y9" s="5">
+        <f t="shared" si="3"/>
+        <v>26.666666666666668</v>
+      </c>
+      <c r="Z9" s="5">
+        <f t="shared" si="4"/>
+        <v>26.666666666666668</v>
+      </c>
+      <c r="AA9" s="21">
+        <f t="shared" si="5"/>
+        <v>26.666666666666668</v>
       </c>
     </row>
-    <row r="10" spans="1:28" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:33" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="12"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
-      <c r="I10" s="12"/>
+      <c r="I10" s="11"/>
       <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
       <c r="M10" s="11"/>
       <c r="N10" s="11"/>
-      <c r="O10" s="12" t="s">
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="P10" s="12"/>
-      <c r="Q10" s="18">
-        <f>AVERAGE(Q4:Q9)</f>
-        <v>73.333333333333329</v>
-      </c>
-      <c r="R10" s="19">
-        <f>AVERAGE(R4:R9)</f>
-        <v>73.333333333333329</v>
-      </c>
-      <c r="S10" s="19">
-        <f>AVERAGE(S4:S9)</f>
-        <v>68.333333333333329</v>
-      </c>
-      <c r="T10" s="19">
-        <f>AVERAGE(T4:T9)</f>
-        <v>73.333333333333329</v>
-      </c>
-      <c r="U10" s="19">
-        <f>AVERAGE(U4:U9)</f>
+      <c r="T10" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="U10" s="12"/>
+      <c r="V10" s="18">
+        <f>AVERAGE(V4:V9)</f>
+        <v>71.111111111111114</v>
+      </c>
+      <c r="W10" s="19">
+        <f>AVERAGE(W4:W9)</f>
+        <v>71.111111111111114</v>
+      </c>
+      <c r="X10" s="19">
+        <f>AVERAGE(X4:X9)</f>
         <v>66.666666666666671</v>
       </c>
-      <c r="V10" s="20">
-        <f>AVERAGE(Q10:U10)</f>
-        <v>71</v>
+      <c r="Y10" s="19">
+        <f>AVERAGE(Y4:Y9)</f>
+        <v>71.111111111111114</v>
+      </c>
+      <c r="Z10" s="19">
+        <f>AVERAGE(Z4:Z9)</f>
+        <v>64.444444444444443</v>
+      </c>
+      <c r="AA10" s="20">
+        <f>AVERAGE(V10:Z10)</f>
+        <v>68.888888888888886</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="B1:D2"/>
-    <mergeCell ref="E1:G2"/>
-    <mergeCell ref="H1:J2"/>
-    <mergeCell ref="K1:M2"/>
-    <mergeCell ref="N1:P2"/>
-    <mergeCell ref="Q1:V2"/>
+    <mergeCell ref="V1:AA2"/>
+    <mergeCell ref="B1:E2"/>
+    <mergeCell ref="F1:I2"/>
+    <mergeCell ref="J1:M2"/>
+    <mergeCell ref="N1:Q2"/>
+    <mergeCell ref="R1:U2"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.39370078740157483"/>
